--- a/assets/excel/format_inport_siswa1.xlsx
+++ b/assets/excel/format_inport_siswa1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -39,12 +39,6 @@
     <t xml:space="preserve">No Hp </t>
   </si>
   <si>
-    <t>Kode Provinsi</t>
-  </si>
-  <si>
-    <t>Kode kabupaten</t>
-  </si>
-  <si>
     <t>Kelas</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>1236547898</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Smk Negeri 1 Simpang kanan</t>
   </si>
   <si>
@@ -72,10 +60,10 @@
     <t>1678894520</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>082165700141</t>
   </si>
 </sst>
 </file>
@@ -424,27 +412,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -452,60 +438,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
